--- a/biology/Botanique/Acrochaetiaceae/Acrochaetiaceae.xlsx
+++ b/biology/Botanique/Acrochaetiaceae/Acrochaetiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acrochaetiaceae sont une famille d’algues rouges de l’ordre des Acrochaetiales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom provient du genre type Acrochaetium, construit à partir du préfixe acro-, « extrémité ; sommet » (grec άκρος / ákros, bord), et du suffixe -chaeto, poil ; littéralement « extrémité poilue ».
 </t>
@@ -542,27 +556,29 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 décembre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 décembre 2021) :
 Acrochaetium Naegeli
 Audouinella Bonnemaison
 Colaconema Batters
 Kylinia Rosenvinge
 Rhodochorton C. Naegeli
-Selon ITIS      (25 décembre 2021)[3] :
+Selon ITIS      (25 décembre 2021) :
 Acrochaetium Naegeli, 1858
 Audouinella Bonnemaison, 1828
 Kylinia Rosenvinge, 1909
 Rhodochorton C. Naegeli, 1862
-Selon NCBI  (25 décembre 2021)[4] :
+Selon NCBI  (25 décembre 2021) :
 Acrochaetium Naegeli in Naegeli &amp; Cramer, 1858
 Audouinella Bory de Saint-Vincent, 1823
 Grania Kylin 1944
 Rhodochorton
 Rhododrewia Clayden &amp; Saunders, 2014
 Schmitziella Bornet &amp; Batters in Batters, 1892
-Selon World Register of Marine Species                               (25 décembre 2021)[5] :
+Selon World Register of Marine Species                               (25 décembre 2021) :
 Acrochaetium Nägeli, 1858
 Audouinella Bory de Saint-Vincent, 1823
 Grania (Rosenvinge) Kylin, 1944
